--- a/document/schedule/全体スケジュール.xlsx
+++ b/document/schedule/全体スケジュール.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>No</t>
     <phoneticPr fontId="0"/>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>8月</t>
-  </si>
-  <si>
-    <t>3月</t>
   </si>
   <si>
     <t>人日</t>
@@ -613,7 +610,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -834,60 +831,6 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -910,6 +853,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1307,10 +1307,10 @@
   <dimension ref="A1:FB108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="DH8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AF13" sqref="AF13"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -1836,22 +1836,20 @@
   <sheetData>
     <row r="1" spans="1:158" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="J1" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="3"/>
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
@@ -1870,7 +1868,7 @@
     </row>
     <row r="2" spans="1:158" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="6"/>
@@ -1878,14 +1876,11 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="7" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="7"/>
       <c r="O2" s="7">
         <f>SUM(F8:AI11)</f>
         <v>6</v>
@@ -1900,7 +1895,7 @@
       </c>
       <c r="R2" s="9">
         <f>SUM(CS8:DW56)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S2" s="10">
         <f>SUM(DX8:FB56)</f>
@@ -1917,21 +1912,21 @@
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="75" t="e">
+      <c r="J3" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="94">
         <f>SUM(N2:S2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="77"/>
+        <v>14</v>
+      </c>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="96"/>
     </row>
     <row r="4" spans="1:158" ht="13.5" customHeight="1" thickBot="1">
       <c r="A4" s="12"/>
@@ -1939,21 +1934,21 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="J4" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="78" t="e">
+      <c r="J4" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="97">
         <f>N3/8</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="80"/>
+        <v>1.75</v>
+      </c>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="99"/>
       <c r="T4" s="13"/>
       <c r="AJ4" s="14" t="s">
         <v>13</v>
@@ -1968,191 +1963,191 @@
       <c r="AR4" s="15"/>
     </row>
     <row r="5" spans="1:158" ht="10.5" customHeight="1">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="89">
+      <c r="F5" s="87">
         <v>42826</v>
       </c>
-      <c r="G5" s="90"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
-      <c r="AF5" s="87"/>
-      <c r="AG5" s="87"/>
-      <c r="AH5" s="87"/>
-      <c r="AI5" s="88"/>
-      <c r="AJ5" s="91">
+      <c r="G5" s="88"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="83"/>
+      <c r="AJ5" s="89">
         <v>42856</v>
       </c>
-      <c r="AK5" s="87"/>
-      <c r="AL5" s="87"/>
-      <c r="AM5" s="87"/>
-      <c r="AN5" s="87"/>
-      <c r="AO5" s="87"/>
-      <c r="AP5" s="87"/>
-      <c r="AQ5" s="87"/>
-      <c r="AR5" s="87"/>
-      <c r="AS5" s="87"/>
-      <c r="AT5" s="87"/>
-      <c r="AU5" s="87"/>
-      <c r="AV5" s="87"/>
-      <c r="AW5" s="87"/>
-      <c r="AX5" s="87"/>
-      <c r="AY5" s="87"/>
-      <c r="AZ5" s="87"/>
-      <c r="BA5" s="87"/>
-      <c r="BB5" s="87"/>
-      <c r="BC5" s="87"/>
-      <c r="BD5" s="87"/>
-      <c r="BE5" s="87"/>
-      <c r="BF5" s="87"/>
-      <c r="BG5" s="87"/>
-      <c r="BH5" s="87"/>
-      <c r="BI5" s="87"/>
-      <c r="BJ5" s="87"/>
-      <c r="BK5" s="87"/>
-      <c r="BL5" s="87"/>
-      <c r="BM5" s="87"/>
-      <c r="BN5" s="88"/>
-      <c r="BO5" s="91">
+      <c r="AK5" s="82"/>
+      <c r="AL5" s="82"/>
+      <c r="AM5" s="82"/>
+      <c r="AN5" s="82"/>
+      <c r="AO5" s="82"/>
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="82"/>
+      <c r="AR5" s="82"/>
+      <c r="AS5" s="82"/>
+      <c r="AT5" s="82"/>
+      <c r="AU5" s="82"/>
+      <c r="AV5" s="82"/>
+      <c r="AW5" s="82"/>
+      <c r="AX5" s="82"/>
+      <c r="AY5" s="82"/>
+      <c r="AZ5" s="82"/>
+      <c r="BA5" s="82"/>
+      <c r="BB5" s="82"/>
+      <c r="BC5" s="82"/>
+      <c r="BD5" s="82"/>
+      <c r="BE5" s="82"/>
+      <c r="BF5" s="82"/>
+      <c r="BG5" s="82"/>
+      <c r="BH5" s="82"/>
+      <c r="BI5" s="82"/>
+      <c r="BJ5" s="82"/>
+      <c r="BK5" s="82"/>
+      <c r="BL5" s="82"/>
+      <c r="BM5" s="82"/>
+      <c r="BN5" s="83"/>
+      <c r="BO5" s="89">
         <v>42887</v>
       </c>
-      <c r="BP5" s="87"/>
-      <c r="BQ5" s="87"/>
-      <c r="BR5" s="87"/>
-      <c r="BS5" s="87"/>
-      <c r="BT5" s="87"/>
-      <c r="BU5" s="87"/>
-      <c r="BV5" s="87"/>
-      <c r="BW5" s="87"/>
-      <c r="BX5" s="87"/>
-      <c r="BY5" s="87"/>
-      <c r="BZ5" s="87"/>
-      <c r="CA5" s="87"/>
-      <c r="CB5" s="87"/>
-      <c r="CC5" s="87"/>
-      <c r="CD5" s="87"/>
-      <c r="CE5" s="87"/>
-      <c r="CF5" s="87"/>
-      <c r="CG5" s="87"/>
-      <c r="CH5" s="87"/>
-      <c r="CI5" s="87"/>
-      <c r="CJ5" s="87"/>
-      <c r="CK5" s="87"/>
-      <c r="CL5" s="87"/>
-      <c r="CM5" s="87"/>
-      <c r="CN5" s="87"/>
-      <c r="CO5" s="87"/>
-      <c r="CP5" s="87"/>
-      <c r="CQ5" s="87"/>
-      <c r="CR5" s="88"/>
-      <c r="CS5" s="91">
+      <c r="BP5" s="82"/>
+      <c r="BQ5" s="82"/>
+      <c r="BR5" s="82"/>
+      <c r="BS5" s="82"/>
+      <c r="BT5" s="82"/>
+      <c r="BU5" s="82"/>
+      <c r="BV5" s="82"/>
+      <c r="BW5" s="82"/>
+      <c r="BX5" s="82"/>
+      <c r="BY5" s="82"/>
+      <c r="BZ5" s="82"/>
+      <c r="CA5" s="82"/>
+      <c r="CB5" s="82"/>
+      <c r="CC5" s="82"/>
+      <c r="CD5" s="82"/>
+      <c r="CE5" s="82"/>
+      <c r="CF5" s="82"/>
+      <c r="CG5" s="82"/>
+      <c r="CH5" s="82"/>
+      <c r="CI5" s="82"/>
+      <c r="CJ5" s="82"/>
+      <c r="CK5" s="82"/>
+      <c r="CL5" s="82"/>
+      <c r="CM5" s="82"/>
+      <c r="CN5" s="82"/>
+      <c r="CO5" s="82"/>
+      <c r="CP5" s="82"/>
+      <c r="CQ5" s="82"/>
+      <c r="CR5" s="83"/>
+      <c r="CS5" s="89">
         <v>42917</v>
       </c>
-      <c r="CT5" s="87"/>
-      <c r="CU5" s="87"/>
-      <c r="CV5" s="87"/>
-      <c r="CW5" s="87"/>
-      <c r="CX5" s="87"/>
-      <c r="CY5" s="87"/>
-      <c r="CZ5" s="87"/>
-      <c r="DA5" s="87"/>
-      <c r="DB5" s="87"/>
-      <c r="DC5" s="87"/>
-      <c r="DD5" s="87"/>
-      <c r="DE5" s="87"/>
-      <c r="DF5" s="87"/>
-      <c r="DG5" s="87"/>
-      <c r="DH5" s="87"/>
-      <c r="DI5" s="87"/>
-      <c r="DJ5" s="87"/>
-      <c r="DK5" s="87"/>
-      <c r="DL5" s="87"/>
-      <c r="DM5" s="87"/>
-      <c r="DN5" s="87"/>
-      <c r="DO5" s="87"/>
-      <c r="DP5" s="87"/>
-      <c r="DQ5" s="87"/>
-      <c r="DR5" s="87"/>
-      <c r="DS5" s="87"/>
-      <c r="DT5" s="87"/>
-      <c r="DU5" s="87"/>
-      <c r="DV5" s="87"/>
-      <c r="DW5" s="88"/>
-      <c r="DX5" s="87">
+      <c r="CT5" s="82"/>
+      <c r="CU5" s="82"/>
+      <c r="CV5" s="82"/>
+      <c r="CW5" s="82"/>
+      <c r="CX5" s="82"/>
+      <c r="CY5" s="82"/>
+      <c r="CZ5" s="82"/>
+      <c r="DA5" s="82"/>
+      <c r="DB5" s="82"/>
+      <c r="DC5" s="82"/>
+      <c r="DD5" s="82"/>
+      <c r="DE5" s="82"/>
+      <c r="DF5" s="82"/>
+      <c r="DG5" s="82"/>
+      <c r="DH5" s="82"/>
+      <c r="DI5" s="82"/>
+      <c r="DJ5" s="82"/>
+      <c r="DK5" s="82"/>
+      <c r="DL5" s="82"/>
+      <c r="DM5" s="82"/>
+      <c r="DN5" s="82"/>
+      <c r="DO5" s="82"/>
+      <c r="DP5" s="82"/>
+      <c r="DQ5" s="82"/>
+      <c r="DR5" s="82"/>
+      <c r="DS5" s="82"/>
+      <c r="DT5" s="82"/>
+      <c r="DU5" s="82"/>
+      <c r="DV5" s="82"/>
+      <c r="DW5" s="83"/>
+      <c r="DX5" s="82">
         <v>42948</v>
       </c>
-      <c r="DY5" s="87"/>
-      <c r="DZ5" s="87"/>
-      <c r="EA5" s="87"/>
-      <c r="EB5" s="87"/>
-      <c r="EC5" s="87"/>
-      <c r="ED5" s="87"/>
-      <c r="EE5" s="87"/>
-      <c r="EF5" s="87"/>
-      <c r="EG5" s="87"/>
-      <c r="EH5" s="87"/>
-      <c r="EI5" s="87"/>
-      <c r="EJ5" s="87"/>
-      <c r="EK5" s="87"/>
-      <c r="EL5" s="87"/>
-      <c r="EM5" s="87"/>
-      <c r="EN5" s="87"/>
-      <c r="EO5" s="87"/>
-      <c r="EP5" s="87"/>
-      <c r="EQ5" s="87"/>
-      <c r="ER5" s="87"/>
-      <c r="ES5" s="87"/>
-      <c r="ET5" s="87"/>
-      <c r="EU5" s="87"/>
-      <c r="EV5" s="87"/>
-      <c r="EW5" s="87"/>
-      <c r="EX5" s="87"/>
-      <c r="EY5" s="87"/>
-      <c r="EZ5" s="87"/>
-      <c r="FA5" s="87"/>
-      <c r="FB5" s="88"/>
+      <c r="DY5" s="82"/>
+      <c r="DZ5" s="82"/>
+      <c r="EA5" s="82"/>
+      <c r="EB5" s="82"/>
+      <c r="EC5" s="82"/>
+      <c r="ED5" s="82"/>
+      <c r="EE5" s="82"/>
+      <c r="EF5" s="82"/>
+      <c r="EG5" s="82"/>
+      <c r="EH5" s="82"/>
+      <c r="EI5" s="82"/>
+      <c r="EJ5" s="82"/>
+      <c r="EK5" s="82"/>
+      <c r="EL5" s="82"/>
+      <c r="EM5" s="82"/>
+      <c r="EN5" s="82"/>
+      <c r="EO5" s="82"/>
+      <c r="EP5" s="82"/>
+      <c r="EQ5" s="82"/>
+      <c r="ER5" s="82"/>
+      <c r="ES5" s="82"/>
+      <c r="ET5" s="82"/>
+      <c r="EU5" s="82"/>
+      <c r="EV5" s="82"/>
+      <c r="EW5" s="82"/>
+      <c r="EX5" s="82"/>
+      <c r="EY5" s="82"/>
+      <c r="EZ5" s="82"/>
+      <c r="FA5" s="82"/>
+      <c r="FB5" s="83"/>
     </row>
     <row r="6" spans="1:158" ht="10.5" customHeight="1">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="85"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="19">
         <f>DAY(F5)</f>
         <v>1</v>
@@ -2534,7 +2529,7 @@
         <v>4</v>
       </c>
       <c r="CW6" s="16">
-        <f t="shared" si="3"/>
+        <f>CV6+1</f>
         <v>5</v>
       </c>
       <c r="CX6" s="16">
@@ -2654,7 +2649,7 @@
         <v>3</v>
       </c>
       <c r="EA6" s="16">
-        <f t="shared" si="4"/>
+        <f>DZ6+1</f>
         <v>4</v>
       </c>
       <c r="EB6" s="17">
@@ -2767,11 +2762,11 @@
       </c>
     </row>
     <row r="7" spans="1:158" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="86"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="27" t="str">
         <f>TEXT(F5,"ddd")</f>
         <v>土</v>
@@ -3391,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>12</v>
@@ -3406,7 +3401,7 @@
       <c r="G8" s="39"/>
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
-      <c r="J8" s="94">
+      <c r="J8" s="76">
         <v>0.5</v>
       </c>
       <c r="K8" s="40"/>
@@ -3564,7 +3559,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>12</v>
@@ -3579,7 +3574,7 @@
       <c r="G9" s="51"/>
       <c r="H9" s="52"/>
       <c r="I9" s="52"/>
-      <c r="J9" s="92">
+      <c r="J9" s="74">
         <v>0.5</v>
       </c>
       <c r="K9" s="52"/>
@@ -3737,7 +3732,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>12</v>
@@ -3761,7 +3756,7 @@
       <c r="N10" s="51"/>
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
-      <c r="Q10" s="97">
+      <c r="Q10" s="79">
         <v>1</v>
       </c>
       <c r="R10" s="52"/>
@@ -3912,7 +3907,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>12</v>
@@ -3935,7 +3930,7 @@
       <c r="O11" s="52"/>
       <c r="P11" s="52"/>
       <c r="Q11" s="50"/>
-      <c r="R11" s="97">
+      <c r="R11" s="79">
         <v>1</v>
       </c>
       <c r="S11" s="52"/>
@@ -3943,17 +3938,17 @@
       <c r="U11" s="51"/>
       <c r="V11" s="52"/>
       <c r="W11" s="52"/>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
       <c r="Z11" s="52"/>
       <c r="AA11" s="51"/>
       <c r="AB11" s="51"/>
       <c r="AC11" s="52"/>
       <c r="AD11" s="52"/>
-      <c r="AE11" s="96">
+      <c r="AE11" s="78">
         <v>1</v>
       </c>
-      <c r="AF11" s="96">
+      <c r="AF11" s="78">
         <v>1</v>
       </c>
       <c r="AG11" s="52"/>
@@ -3970,7 +3965,7 @@
       <c r="AR11" s="56"/>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
-      <c r="AU11" s="98">
+      <c r="AU11" s="80">
         <v>1</v>
       </c>
       <c r="AV11" s="53"/>
@@ -4091,7 +4086,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>12</v>
@@ -4163,7 +4158,7 @@
       <c r="BL12" s="4"/>
       <c r="BM12" s="4"/>
       <c r="BN12" s="4"/>
-      <c r="BO12" s="98">
+      <c r="BO12" s="80">
         <v>2</v>
       </c>
       <c r="BP12" s="4"/>
@@ -4173,7 +4168,7 @@
       <c r="BT12" s="4"/>
       <c r="BU12" s="4"/>
       <c r="BV12" s="4"/>
-      <c r="BW12" s="98">
+      <c r="BW12" s="80">
         <v>1</v>
       </c>
       <c r="BX12" s="53"/>
@@ -4266,7 +4261,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>12</v>
@@ -4352,8 +4347,8 @@
       <c r="BZ13" s="59"/>
       <c r="CA13" s="59"/>
       <c r="CB13" s="59"/>
-      <c r="CC13" s="99"/>
-      <c r="CD13" s="98">
+      <c r="CC13" s="81"/>
+      <c r="CD13" s="80">
         <v>2</v>
       </c>
       <c r="CE13" s="53"/>
@@ -4439,13 +4434,17 @@
         <v>7</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
+      <c r="D14" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="60">
+        <v>1</v>
+      </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="52"/>
@@ -4562,7 +4561,9 @@
       <c r="DO14" s="53"/>
       <c r="DP14" s="4"/>
       <c r="DQ14" s="4"/>
-      <c r="DR14" s="4"/>
+      <c r="DR14" s="100">
+        <v>2</v>
+      </c>
       <c r="DS14" s="4"/>
       <c r="DT14" s="4"/>
       <c r="DU14" s="53"/>
@@ -4606,7 +4607,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>12</v>
@@ -4687,7 +4688,7 @@
       <c r="BY15" s="53"/>
       <c r="BZ15" s="59"/>
       <c r="CA15" s="59"/>
-      <c r="CB15" s="92"/>
+      <c r="CB15" s="74"/>
       <c r="CC15" s="59"/>
       <c r="CD15" s="59"/>
       <c r="CE15" s="53"/>
@@ -4773,7 +4774,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>12</v>
@@ -4940,7 +4941,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>12</v>
@@ -5107,7 +5108,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>12</v>
@@ -5274,7 +5275,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>12</v>
@@ -5683,7 +5684,7 @@
       <c r="CA21" s="59"/>
       <c r="CB21" s="59"/>
       <c r="CC21" s="59"/>
-      <c r="CD21" s="93"/>
+      <c r="CD21" s="75"/>
       <c r="CE21" s="53"/>
       <c r="CF21" s="53"/>
       <c r="CG21" s="4"/>
@@ -5844,9 +5845,9 @@
       <c r="BY22" s="53"/>
       <c r="BZ22" s="59"/>
       <c r="CA22" s="59"/>
-      <c r="CB22" s="92"/>
+      <c r="CB22" s="74"/>
       <c r="CC22" s="59"/>
-      <c r="CD22" s="93"/>
+      <c r="CD22" s="75"/>
       <c r="CE22" s="53"/>
       <c r="CF22" s="53"/>
       <c r="CG22" s="4"/>
@@ -6009,7 +6010,7 @@
       <c r="CA23" s="59"/>
       <c r="CB23" s="59"/>
       <c r="CC23" s="59"/>
-      <c r="CD23" s="93"/>
+      <c r="CD23" s="75"/>
       <c r="CE23" s="53"/>
       <c r="CF23" s="53"/>
       <c r="CG23" s="4"/>
@@ -6172,7 +6173,7 @@
       <c r="CA24" s="59"/>
       <c r="CB24" s="59"/>
       <c r="CC24" s="59"/>
-      <c r="CD24" s="93"/>
+      <c r="CD24" s="75"/>
       <c r="CE24" s="53"/>
       <c r="CF24" s="53"/>
       <c r="CG24" s="4"/>
@@ -6335,7 +6336,7 @@
       <c r="CA25" s="59"/>
       <c r="CB25" s="59"/>
       <c r="CC25" s="59"/>
-      <c r="CD25" s="93"/>
+      <c r="CD25" s="75"/>
       <c r="CE25" s="53"/>
       <c r="CF25" s="53"/>
       <c r="CG25" s="4"/>
@@ -6498,7 +6499,7 @@
       <c r="CA26" s="59"/>
       <c r="CB26" s="59"/>
       <c r="CC26" s="59"/>
-      <c r="CD26" s="93"/>
+      <c r="CD26" s="75"/>
       <c r="CE26" s="53"/>
       <c r="CF26" s="53"/>
       <c r="CG26" s="4"/>
@@ -6661,7 +6662,7 @@
       <c r="CA27" s="59"/>
       <c r="CB27" s="59"/>
       <c r="CC27" s="59"/>
-      <c r="CD27" s="93"/>
+      <c r="CD27" s="75"/>
       <c r="CE27" s="53"/>
       <c r="CF27" s="53"/>
       <c r="CG27" s="4"/>
@@ -17604,12 +17605,8 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="DX5:FB5"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F5:AI5"/>
-    <mergeCell ref="AJ5:BN5"/>
-    <mergeCell ref="BO5:CR5"/>
-    <mergeCell ref="CS5:DW5"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
@@ -17617,8 +17614,12 @@
     <mergeCell ref="J1:M2"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="DX5:FB5"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F5:AI5"/>
+    <mergeCell ref="AJ5:BN5"/>
+    <mergeCell ref="BO5:CR5"/>
+    <mergeCell ref="CS5:DW5"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:E16 E20:E56">
     <cfRule type="dataBar" priority="7">
